--- a/Resources/N Project Monthly 5 years.xls.xlsx
+++ b/Resources/N Project Monthly 5 years.xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andy\Desktop\Bootcamp stuff\Module 20_group_project\Covid-19\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="HistoricalData (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -553,7 +553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -572,6 +572,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -928,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,7 +949,7 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -963,1203 +972,1245 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>42826</v>
-      </c>
-      <c r="B2" s="6">
-        <v>5917.32</v>
-      </c>
-      <c r="C2" s="6">
-        <v>5805.15</v>
-      </c>
-      <c r="D2" s="6">
-        <v>6074.04</v>
-      </c>
-      <c r="E2" s="6">
-        <v>6047.61</v>
-      </c>
-      <c r="F2" s="6">
-        <v>8302492073</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>42856</v>
-      </c>
-      <c r="B3" s="6">
-        <v>6067.56</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5996.8149999999996</v>
-      </c>
-      <c r="D3" s="6">
-        <v>6221.9859999999999</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6198.52</v>
-      </c>
-      <c r="F3" s="6">
-        <v>10239273745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>42887</v>
-      </c>
-      <c r="B4" s="6">
-        <v>6215.92</v>
-      </c>
-      <c r="C4" s="6">
-        <v>6087.81</v>
-      </c>
-      <c r="D4" s="6">
-        <v>6341.6959999999999</v>
-      </c>
-      <c r="E4" s="6">
-        <v>6140.42</v>
-      </c>
-      <c r="F4" s="6">
-        <v>12495363264</v>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>42736</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <v>5616</v>
+      </c>
+      <c r="F2" s="3">
+        <v>506400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>42767</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>5826</v>
+      </c>
+      <c r="F3" s="3">
+        <v>620800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>408037</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>5912</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5291000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="B5" s="6">
-        <v>6173.29</v>
+        <v>5917.32</v>
       </c>
       <c r="C5" s="6">
-        <v>6081.9610000000002</v>
+        <v>5805.15</v>
       </c>
       <c r="D5" s="6">
-        <v>6460.8410000000003</v>
+        <v>6074.04</v>
       </c>
       <c r="E5" s="6">
-        <v>6348.12</v>
-      </c>
-      <c r="F5" s="6">
-        <v>8578650016</v>
+        <v>6047.61</v>
+      </c>
+      <c r="F5" s="8">
+        <v>8302492073</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>42948</v>
+        <v>42856</v>
       </c>
       <c r="B6" s="6">
-        <v>6372.16</v>
+        <v>6067.56</v>
       </c>
       <c r="C6" s="6">
-        <v>6177.1859999999997</v>
+        <v>5996.8149999999996</v>
       </c>
       <c r="D6" s="6">
-        <v>6435.2669999999998</v>
+        <v>6221.9859999999999</v>
       </c>
       <c r="E6" s="6">
-        <v>6428.66</v>
+        <v>6198.52</v>
       </c>
       <c r="F6" s="6">
-        <v>9581315806</v>
+        <v>10239273745</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>42979</v>
+        <v>42887</v>
       </c>
       <c r="B7" s="6">
-        <v>6442.17</v>
+        <v>6215.92</v>
       </c>
       <c r="C7" s="6">
-        <v>6334.5889999999999</v>
+        <v>6087.81</v>
       </c>
       <c r="D7" s="6">
-        <v>6497.9769999999999</v>
+        <v>6341.6959999999999</v>
       </c>
       <c r="E7" s="6">
-        <v>6495.96</v>
+        <v>6140.42</v>
       </c>
       <c r="F7" s="6">
-        <v>9408462400</v>
+        <v>12495363264</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="B8" s="6">
-        <v>6506.08</v>
+        <v>6173.29</v>
       </c>
       <c r="C8" s="6">
-        <v>6484.1379999999999</v>
+        <v>6081.9610000000002</v>
       </c>
       <c r="D8" s="6">
-        <v>6737.7510000000002</v>
+        <v>6460.8410000000003</v>
       </c>
       <c r="E8" s="6">
-        <v>6727.67</v>
+        <v>6348.12</v>
       </c>
       <c r="F8" s="6">
-        <v>9643769843</v>
+        <v>8578650016</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>43040</v>
+        <v>42948</v>
       </c>
       <c r="B9" s="6">
-        <v>6758.64</v>
+        <v>6372.16</v>
       </c>
       <c r="C9" s="6">
-        <v>6667.3090000000002</v>
+        <v>6177.1859999999997</v>
       </c>
       <c r="D9" s="6">
-        <v>6914.1890000000003</v>
+        <v>6435.2669999999998</v>
       </c>
       <c r="E9" s="6">
-        <v>6873.97</v>
+        <v>6428.66</v>
       </c>
       <c r="F9" s="6">
-        <v>10199649517</v>
+        <v>9581315806</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>43070</v>
+        <v>42979</v>
       </c>
       <c r="B10" s="6">
-        <v>6844.04</v>
+        <v>6442.17</v>
       </c>
       <c r="C10" s="6">
-        <v>6734.1279999999997</v>
+        <v>6334.5889999999999</v>
       </c>
       <c r="D10" s="6">
-        <v>7003.8909999999996</v>
+        <v>6497.9769999999999</v>
       </c>
       <c r="E10" s="6">
-        <v>6903.39</v>
+        <v>6495.96</v>
       </c>
       <c r="F10" s="6">
-        <v>10003547944</v>
+        <v>9408462400</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="B11" s="6">
-        <v>6937.65</v>
+        <v>6506.08</v>
       </c>
       <c r="C11" s="6">
-        <v>6924.0810000000001</v>
+        <v>6484.1379999999999</v>
       </c>
       <c r="D11" s="6">
-        <v>7505.7719999999999</v>
+        <v>6737.7510000000002</v>
       </c>
       <c r="E11" s="6">
-        <v>7411.48</v>
+        <v>6727.67</v>
       </c>
       <c r="F11" s="6">
-        <v>10402836615</v>
+        <v>9643769843</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>43132</v>
+        <v>43040</v>
       </c>
       <c r="B12" s="6">
-        <v>7377.17</v>
+        <v>6758.64</v>
       </c>
       <c r="C12" s="6">
-        <v>6630.6719999999996</v>
+        <v>6667.3090000000002</v>
       </c>
       <c r="D12" s="6">
-        <v>7441.0940000000001</v>
+        <v>6914.1890000000003</v>
       </c>
       <c r="E12" s="6">
-        <v>7273.01</v>
+        <v>6873.97</v>
       </c>
       <c r="F12" s="6">
-        <v>10805256007</v>
+        <v>10199649517</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>43160</v>
+        <v>43070</v>
       </c>
       <c r="B13" s="6">
-        <v>7274.75</v>
+        <v>6844.04</v>
       </c>
       <c r="C13" s="6">
-        <v>6901.0659999999998</v>
+        <v>6734.1279999999997</v>
       </c>
       <c r="D13" s="6">
-        <v>7637.2690000000002</v>
+        <v>7003.8909999999996</v>
       </c>
       <c r="E13" s="6">
-        <v>7063.45</v>
+        <v>6903.39</v>
       </c>
       <c r="F13" s="6">
-        <v>12330610876</v>
+        <v>10003547944</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="B14" s="6">
-        <v>7016.17</v>
+        <v>6937.65</v>
       </c>
       <c r="C14" s="6">
-        <v>6805.96</v>
+        <v>6924.0810000000001</v>
       </c>
       <c r="D14" s="6">
-        <v>7319.576</v>
+        <v>7505.7719999999999</v>
       </c>
       <c r="E14" s="6">
-        <v>7066.27</v>
+        <v>7411.48</v>
       </c>
       <c r="F14" s="6">
-        <v>10155255992</v>
+        <v>10402836615</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>43221</v>
+        <v>43132</v>
       </c>
       <c r="B15" s="6">
-        <v>7053.65</v>
+        <v>7377.17</v>
       </c>
       <c r="C15" s="6">
-        <v>6991.1369999999997</v>
+        <v>6630.6719999999996</v>
       </c>
       <c r="D15" s="6">
-        <v>7492.4229999999998</v>
+        <v>7441.0940000000001</v>
       </c>
       <c r="E15" s="6">
-        <v>7442.12</v>
+        <v>7273.01</v>
       </c>
       <c r="F15" s="6">
-        <v>10635804212</v>
+        <v>10805256007</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>43252</v>
+        <v>43160</v>
       </c>
       <c r="B16" s="6">
-        <v>7487.66</v>
+        <v>7274.75</v>
       </c>
       <c r="C16" s="6">
-        <v>7419.56</v>
+        <v>6901.0659999999998</v>
       </c>
       <c r="D16" s="6">
-        <v>7806.5959999999995</v>
+        <v>7637.2690000000002</v>
       </c>
       <c r="E16" s="6">
-        <v>7510.3</v>
+        <v>7063.45</v>
       </c>
       <c r="F16" s="6">
-        <v>12841254425</v>
+        <v>12330610876</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="B17" s="6">
-        <v>7451.9</v>
+        <v>7016.17</v>
       </c>
       <c r="C17" s="6">
-        <v>7443.1030000000001</v>
+        <v>6805.96</v>
       </c>
       <c r="D17" s="6">
-        <v>7933.3059999999996</v>
+        <v>7319.576</v>
       </c>
       <c r="E17" s="6">
-        <v>7671.79</v>
+        <v>7066.27</v>
       </c>
       <c r="F17" s="6">
-        <v>9424389971</v>
+        <v>10155255992</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>43313</v>
+        <v>43221</v>
       </c>
       <c r="B18" s="6">
-        <v>7701.82</v>
+        <v>7053.65</v>
       </c>
       <c r="C18" s="6">
-        <v>7659.5240000000003</v>
+        <v>6991.1369999999997</v>
       </c>
       <c r="D18" s="6">
-        <v>8133.2979999999998</v>
+        <v>7492.4229999999998</v>
       </c>
       <c r="E18" s="6">
-        <v>8109.54</v>
+        <v>7442.12</v>
       </c>
       <c r="F18" s="6">
-        <v>10701358279</v>
+        <v>10635804212</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>43344</v>
+        <v>43252</v>
       </c>
       <c r="B19" s="6">
-        <v>8087.96</v>
+        <v>7487.66</v>
       </c>
       <c r="C19" s="6">
-        <v>7873.9260000000004</v>
+        <v>7419.56</v>
       </c>
       <c r="D19" s="6">
-        <v>8104.0709999999999</v>
+        <v>7806.5959999999995</v>
       </c>
       <c r="E19" s="6">
-        <v>8046.35</v>
+        <v>7510.3</v>
       </c>
       <c r="F19" s="6">
-        <v>11153039738</v>
+        <v>12841254425</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="B20" s="6">
-        <v>8091.5</v>
+        <v>7451.9</v>
       </c>
       <c r="C20" s="6">
-        <v>6922.8280000000004</v>
+        <v>7443.1030000000001</v>
       </c>
       <c r="D20" s="6">
-        <v>8107.3789999999999</v>
+        <v>7933.3059999999996</v>
       </c>
       <c r="E20" s="6">
-        <v>7305.9</v>
+        <v>7671.79</v>
       </c>
       <c r="F20" s="6">
-        <v>14831031645</v>
+        <v>9424389971</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>43405</v>
+        <v>43313</v>
       </c>
       <c r="B21" s="6">
-        <v>7327.82</v>
+        <v>7701.82</v>
       </c>
       <c r="C21" s="6">
-        <v>6830.7610000000004</v>
+        <v>7659.5240000000003</v>
       </c>
       <c r="D21" s="6">
-        <v>7572.9269999999997</v>
+        <v>8133.2979999999998</v>
       </c>
       <c r="E21" s="6">
-        <v>7330.54</v>
+        <v>8109.54</v>
       </c>
       <c r="F21" s="6">
-        <v>12569887986</v>
+        <v>10701358279</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>43435</v>
+        <v>43344</v>
       </c>
       <c r="B22" s="6">
-        <v>7486.13</v>
+        <v>8087.96</v>
       </c>
       <c r="C22" s="6">
-        <v>6190.1660000000002</v>
+        <v>7873.9260000000004</v>
       </c>
       <c r="D22" s="6">
-        <v>7486.5129999999999</v>
+        <v>8104.0709999999999</v>
       </c>
       <c r="E22" s="6">
-        <v>6635.28</v>
+        <v>8046.35</v>
       </c>
       <c r="F22" s="6">
-        <v>13123251192</v>
+        <v>11153039738</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="B23" s="6">
-        <v>6506.91</v>
+        <v>8091.5</v>
       </c>
       <c r="C23" s="6">
-        <v>6457.1310000000003</v>
+        <v>6922.8280000000004</v>
       </c>
       <c r="D23" s="6">
-        <v>7303.1210000000001</v>
+        <v>8107.3789999999999</v>
       </c>
       <c r="E23" s="6">
-        <v>7281.74</v>
+        <v>7305.9</v>
       </c>
       <c r="F23" s="6">
-        <v>12227386728</v>
+        <v>14831031645</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>43497</v>
+        <v>43405</v>
       </c>
       <c r="B24" s="6">
-        <v>7256.37</v>
+        <v>7327.82</v>
       </c>
       <c r="C24" s="6">
-        <v>7225.1369999999997</v>
+        <v>6830.7610000000004</v>
       </c>
       <c r="D24" s="6">
-        <v>7602.6940000000004</v>
+        <v>7572.9269999999997</v>
       </c>
       <c r="E24" s="6">
-        <v>7532.53</v>
+        <v>7330.54</v>
       </c>
       <c r="F24" s="6">
-        <v>10637207490</v>
+        <v>12569887986</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>43525</v>
+        <v>43435</v>
       </c>
       <c r="B25" s="6">
-        <v>7587.45</v>
+        <v>7486.13</v>
       </c>
       <c r="C25" s="6">
-        <v>7332.9170000000004</v>
+        <v>6190.1660000000002</v>
       </c>
       <c r="D25" s="6">
-        <v>7850.1049999999996</v>
+        <v>7486.5129999999999</v>
       </c>
       <c r="E25" s="6">
-        <v>7729.32</v>
+        <v>6635.28</v>
       </c>
       <c r="F25" s="6">
-        <v>13041281885</v>
+        <v>13123251192</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="B26" s="6">
-        <v>7800.24</v>
+        <v>6506.91</v>
       </c>
       <c r="C26" s="6">
-        <v>7777.0950000000003</v>
+        <v>6457.1310000000003</v>
       </c>
       <c r="D26" s="6">
-        <v>8176.08</v>
+        <v>7303.1210000000001</v>
       </c>
       <c r="E26" s="6">
-        <v>8095.39</v>
+        <v>7281.74</v>
       </c>
       <c r="F26" s="6">
-        <v>10751583657</v>
+        <v>12227386728</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>43586</v>
+        <v>43497</v>
       </c>
       <c r="B27" s="6">
-        <v>8132.93</v>
+        <v>7256.37</v>
       </c>
       <c r="C27" s="6">
-        <v>7448.2269999999999</v>
+        <v>7225.1369999999997</v>
       </c>
       <c r="D27" s="6">
-        <v>8164.7139999999999</v>
+        <v>7602.6940000000004</v>
       </c>
       <c r="E27" s="6">
-        <v>7453.15</v>
+        <v>7532.53</v>
       </c>
       <c r="F27" s="6">
-        <v>12283387305</v>
+        <v>10637207490</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>43617</v>
+        <v>43525</v>
       </c>
       <c r="B28" s="6">
-        <v>7441.22</v>
+        <v>7587.45</v>
       </c>
       <c r="C28" s="6">
-        <v>7292.2150000000001</v>
+        <v>7332.9170000000004</v>
       </c>
       <c r="D28" s="6">
-        <v>8088.88</v>
+        <v>7850.1049999999996</v>
       </c>
       <c r="E28" s="6">
-        <v>8006.24</v>
+        <v>7729.32</v>
       </c>
       <c r="F28" s="6">
-        <v>12574574000</v>
+        <v>13041281885</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="B29" s="6">
-        <v>8145.85</v>
+        <v>7800.24</v>
       </c>
       <c r="C29" s="6">
-        <v>8059.29</v>
+        <v>7777.0950000000003</v>
       </c>
       <c r="D29" s="6">
-        <v>8339.6389999999992</v>
+        <v>8176.08</v>
       </c>
       <c r="E29" s="6">
-        <v>8175.42</v>
+        <v>8095.39</v>
       </c>
       <c r="F29" s="6">
-        <v>11143906050</v>
+        <v>10751583657</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <v>43678</v>
+        <v>43586</v>
       </c>
       <c r="B30" s="6">
-        <v>8190.56</v>
+        <v>8132.93</v>
       </c>
       <c r="C30" s="6">
-        <v>7662.9040000000005</v>
+        <v>7448.2269999999999</v>
       </c>
       <c r="D30" s="6">
-        <v>8311.0380000000005</v>
+        <v>8164.7139999999999</v>
       </c>
       <c r="E30" s="6">
-        <v>7962.88</v>
+        <v>7453.15</v>
       </c>
       <c r="F30" s="6">
-        <v>11994480568</v>
+        <v>12283387305</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <v>43709</v>
+        <v>43617</v>
       </c>
       <c r="B31" s="6">
-        <v>7906.44</v>
+        <v>7441.22</v>
       </c>
       <c r="C31" s="6">
-        <v>7847.32</v>
+        <v>7292.2150000000001</v>
       </c>
       <c r="D31" s="6">
-        <v>8243.7970000000005</v>
+        <v>8088.88</v>
       </c>
       <c r="E31" s="6">
-        <v>7999.33</v>
+        <v>8006.24</v>
       </c>
       <c r="F31" s="6">
-        <v>11510849523</v>
+        <v>12574574000</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="B32" s="6">
-        <v>8026.83</v>
+        <v>8145.85</v>
       </c>
       <c r="C32" s="6">
-        <v>7700.0020000000004</v>
+        <v>8059.29</v>
       </c>
       <c r="D32" s="6">
-        <v>8335.5640000000003</v>
+        <v>8339.6389999999992</v>
       </c>
       <c r="E32" s="6">
-        <v>8292.36</v>
+        <v>8175.42</v>
       </c>
       <c r="F32" s="6">
-        <v>11226733804</v>
+        <v>11143906050</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <v>43770</v>
+        <v>43678</v>
       </c>
       <c r="B33" s="6">
-        <v>8335.0499999999993</v>
+        <v>8190.56</v>
       </c>
       <c r="C33" s="6">
-        <v>8326.5570000000007</v>
+        <v>7662.9040000000005</v>
       </c>
       <c r="D33" s="6">
-        <v>8705.9140000000007</v>
+        <v>8311.0380000000005</v>
       </c>
       <c r="E33" s="6">
-        <v>8665.4699999999993</v>
+        <v>7962.88</v>
       </c>
       <c r="F33" s="6">
-        <v>10745739757</v>
+        <v>11994480568</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <v>43800</v>
+        <v>43709</v>
       </c>
       <c r="B34" s="6">
-        <v>8672.85</v>
+        <v>7906.44</v>
       </c>
       <c r="C34" s="6">
-        <v>8435.4009999999998</v>
+        <v>7847.32</v>
       </c>
       <c r="D34" s="6">
-        <v>9052.0020000000004</v>
+        <v>8243.7970000000005</v>
       </c>
       <c r="E34" s="6">
-        <v>8972.6</v>
+        <v>7999.33</v>
       </c>
       <c r="F34" s="6">
-        <v>12249707059</v>
+        <v>11510849523</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="B35" s="6">
-        <v>9039.4599999999991</v>
+        <v>8026.83</v>
       </c>
       <c r="C35" s="6">
-        <v>8943.5020000000004</v>
+        <v>7700.0020000000004</v>
       </c>
       <c r="D35" s="6">
-        <v>9451.4320000000007</v>
+        <v>8335.5640000000003</v>
       </c>
       <c r="E35" s="6">
-        <v>9150.94</v>
+        <v>8292.36</v>
       </c>
       <c r="F35" s="6">
-        <v>12887269817</v>
+        <v>11226733804</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <v>43862</v>
+        <v>43770</v>
       </c>
       <c r="B36" s="6">
-        <v>9190.7199999999993</v>
+        <v>8335.0499999999993</v>
       </c>
       <c r="C36" s="6">
-        <v>8264.1589999999997</v>
+        <v>8326.5570000000007</v>
       </c>
       <c r="D36" s="6">
-        <v>9838.3719999999994</v>
+        <v>8705.9140000000007</v>
       </c>
       <c r="E36" s="6">
-        <v>8567.3700000000008</v>
+        <v>8665.4699999999993</v>
       </c>
       <c r="F36" s="6">
-        <v>13386395038</v>
+        <v>10745739757</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <v>43891</v>
+        <v>43800</v>
       </c>
       <c r="B37" s="6">
-        <v>8667.14</v>
+        <v>8672.85</v>
       </c>
       <c r="C37" s="6">
-        <v>6631.42</v>
+        <v>8435.4009999999998</v>
       </c>
       <c r="D37" s="6">
-        <v>9070.3220000000001</v>
+        <v>9052.0020000000004</v>
       </c>
       <c r="E37" s="6">
-        <v>7700.1</v>
+        <v>8972.6</v>
       </c>
       <c r="F37" s="6">
-        <v>25111758860</v>
+        <v>12249707059</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>43922</v>
+        <v>43831</v>
       </c>
       <c r="B38" s="6">
-        <v>7459.5</v>
+        <v>9039.4599999999991</v>
       </c>
       <c r="C38" s="6">
-        <v>7288.1130000000003</v>
+        <v>8943.5020000000004</v>
       </c>
       <c r="D38" s="6">
-        <v>8957.2649999999994</v>
+        <v>9451.4320000000007</v>
       </c>
       <c r="E38" s="6">
-        <v>8889.5499999999993</v>
+        <v>9150.94</v>
       </c>
       <c r="F38" s="6">
-        <v>18759920372</v>
+        <v>12887269817</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>43952</v>
+        <v>43862</v>
       </c>
       <c r="B39" s="6">
-        <v>8681.2900000000009</v>
+        <v>9190.7199999999993</v>
       </c>
       <c r="C39" s="6">
-        <v>8537.8289999999997</v>
+        <v>8264.1589999999997</v>
       </c>
       <c r="D39" s="6">
-        <v>9523.643</v>
+        <v>9838.3719999999994</v>
       </c>
       <c r="E39" s="6">
-        <v>9489.8700000000008</v>
+        <v>8567.3700000000008</v>
       </c>
       <c r="F39" s="6">
-        <v>18165195419</v>
+        <v>13386395038</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <v>43983</v>
+        <v>43891</v>
       </c>
       <c r="B40" s="6">
-        <v>9471.42</v>
+        <v>8667.14</v>
       </c>
       <c r="C40" s="6">
-        <v>9403.0040000000008</v>
+        <v>6631.42</v>
       </c>
       <c r="D40" s="6">
-        <v>10221.847</v>
+        <v>9070.3220000000001</v>
       </c>
       <c r="E40" s="6">
-        <v>10058.77</v>
+        <v>7700.1</v>
       </c>
       <c r="F40" s="6">
-        <v>27301039065</v>
+        <v>25111758860</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <v>44013</v>
+        <v>43922</v>
       </c>
       <c r="B41" s="6">
-        <v>10063.67</v>
+        <v>7459.5</v>
       </c>
       <c r="C41" s="6">
-        <v>10048.040999999999</v>
+        <v>7288.1130000000003</v>
       </c>
       <c r="D41" s="6">
-        <v>10839.928</v>
+        <v>8957.2649999999994</v>
       </c>
       <c r="E41" s="6">
-        <v>10745.28</v>
+        <v>8889.5499999999993</v>
       </c>
       <c r="F41" s="6">
-        <v>20682333679</v>
+        <v>18759920372</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
-        <v>44044</v>
+        <v>43952</v>
       </c>
       <c r="B42" s="6">
-        <v>10848.64</v>
+        <v>8681.2900000000009</v>
       </c>
       <c r="C42" s="6">
-        <v>10762.71</v>
+        <v>8537.8289999999997</v>
       </c>
       <c r="D42" s="6">
-        <v>11829.843000000001</v>
+        <v>9523.643</v>
       </c>
       <c r="E42" s="6">
-        <v>11775.46</v>
+        <v>9489.8700000000008</v>
       </c>
       <c r="F42" s="6">
-        <v>17244602454</v>
+        <v>18165195419</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <v>44075</v>
+        <v>43983</v>
       </c>
       <c r="B43" s="6">
-        <v>11850.96</v>
+        <v>9471.42</v>
       </c>
       <c r="C43" s="6">
-        <v>10519.493</v>
+        <v>9403.0040000000008</v>
       </c>
       <c r="D43" s="6">
-        <v>12074.065000000001</v>
+        <v>10221.847</v>
       </c>
       <c r="E43" s="6">
-        <v>11167.68</v>
+        <v>10058.77</v>
       </c>
       <c r="F43" s="6">
-        <v>20520576928</v>
+        <v>27301039065</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <v>44105</v>
+        <v>44013</v>
       </c>
       <c r="B44" s="6">
-        <v>11291.99</v>
+        <v>10063.67</v>
       </c>
       <c r="C44" s="6">
-        <v>10822.57</v>
+        <v>10048.040999999999</v>
       </c>
       <c r="D44" s="6">
-        <v>11965.54</v>
+        <v>10839.928</v>
       </c>
       <c r="E44" s="6">
-        <v>10911.59</v>
+        <v>10745.28</v>
       </c>
       <c r="F44" s="6">
-        <v>16774563098</v>
+        <v>20682333679</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <v>44136</v>
+        <v>44044</v>
       </c>
       <c r="B45" s="6">
-        <v>11010.45</v>
+        <v>10848.64</v>
       </c>
       <c r="C45" s="6">
-        <v>10830.945</v>
+        <v>10762.71</v>
       </c>
       <c r="D45" s="6">
-        <v>12244.645</v>
+        <v>11829.843000000001</v>
       </c>
       <c r="E45" s="6">
-        <v>12198.74</v>
+        <v>11775.46</v>
       </c>
       <c r="F45" s="6">
-        <v>19469397524</v>
+        <v>17244602454</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <v>44166</v>
+        <v>44075</v>
       </c>
       <c r="B46" s="6">
-        <v>12313.36</v>
+        <v>11850.96</v>
       </c>
       <c r="C46" s="6">
-        <v>12214.739</v>
+        <v>10519.493</v>
       </c>
       <c r="D46" s="6">
-        <v>12973.333000000001</v>
+        <v>12074.065000000001</v>
       </c>
       <c r="E46" s="6">
-        <v>12888.28</v>
+        <v>11167.68</v>
       </c>
       <c r="F46" s="6">
-        <v>23504578175</v>
+        <v>20520576928</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
-        <v>44197</v>
+        <v>44105</v>
       </c>
       <c r="B47" s="6">
-        <v>12958.52</v>
+        <v>11291.99</v>
       </c>
       <c r="C47" s="6">
-        <v>12543.241</v>
+        <v>10822.57</v>
       </c>
       <c r="D47" s="6">
-        <v>13728.984</v>
+        <v>11965.54</v>
       </c>
       <c r="E47" s="6">
-        <v>13070.7</v>
+        <v>10911.59</v>
       </c>
       <c r="F47" s="6">
-        <v>26547129200</v>
+        <v>16774563098</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
-        <v>44228</v>
+        <v>44136</v>
       </c>
       <c r="B48" s="6">
-        <v>13226.18</v>
+        <v>11010.45</v>
       </c>
       <c r="C48" s="6">
-        <v>13003.981</v>
+        <v>10830.945</v>
       </c>
       <c r="D48" s="6">
-        <v>14175.115</v>
+        <v>12244.645</v>
       </c>
       <c r="E48" s="6">
-        <v>13192.35</v>
+        <v>12198.74</v>
       </c>
       <c r="F48" s="6">
-        <v>27399221363</v>
+        <v>19469397524</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <v>44256</v>
+        <v>44166</v>
       </c>
       <c r="B49" s="6">
-        <v>13406.16</v>
+        <v>12313.36</v>
       </c>
       <c r="C49" s="6">
-        <v>12397.053</v>
+        <v>12214.739</v>
       </c>
       <c r="D49" s="6">
-        <v>13620.710999999999</v>
+        <v>12973.333000000001</v>
       </c>
       <c r="E49" s="6">
-        <v>13246.87</v>
+        <v>12888.28</v>
       </c>
       <c r="F49" s="6">
-        <v>29117810074</v>
+        <v>23504578175</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>44287</v>
+        <v>44197</v>
       </c>
       <c r="B50" s="6">
-        <v>13414.33</v>
+        <v>12958.52</v>
       </c>
       <c r="C50" s="6">
-        <v>13404.178</v>
+        <v>12543.241</v>
       </c>
       <c r="D50" s="6">
-        <v>14211.572</v>
+        <v>13728.984</v>
       </c>
       <c r="E50" s="6">
-        <v>13962.68</v>
+        <v>13070.7</v>
       </c>
       <c r="F50" s="6">
-        <v>18514952779</v>
+        <v>26547129200</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <v>44317</v>
+        <v>44228</v>
       </c>
       <c r="B51" s="6">
-        <v>14031.77</v>
+        <v>13226.18</v>
       </c>
       <c r="C51" s="6">
-        <v>13002.535</v>
+        <v>13003.981</v>
       </c>
       <c r="D51" s="6">
-        <v>14042.124</v>
+        <v>14175.115</v>
       </c>
       <c r="E51" s="6">
-        <v>13748.74</v>
+        <v>13192.35</v>
       </c>
       <c r="F51" s="6">
-        <v>18492542668</v>
+        <v>27399221363</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <v>44348</v>
+        <v>44256</v>
       </c>
       <c r="B52" s="6">
-        <v>13829.06</v>
+        <v>13406.16</v>
       </c>
       <c r="C52" s="6">
-        <v>13548.929</v>
+        <v>12397.053</v>
       </c>
       <c r="D52" s="6">
-        <v>14535.968999999999</v>
+        <v>13620.710999999999</v>
       </c>
       <c r="E52" s="6">
-        <v>14503.95</v>
+        <v>13246.87</v>
       </c>
       <c r="F52" s="6">
-        <v>24048313629</v>
+        <v>29117810074</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <v>44378</v>
+        <v>44287</v>
       </c>
       <c r="B53" s="6">
-        <v>14493.69</v>
+        <v>13414.33</v>
       </c>
       <c r="C53" s="6">
-        <v>14178.656999999999</v>
+        <v>13404.178</v>
       </c>
       <c r="D53" s="6">
-        <v>14863.646000000001</v>
+        <v>14211.572</v>
       </c>
       <c r="E53" s="6">
-        <v>14672.68</v>
+        <v>13962.68</v>
       </c>
       <c r="F53" s="6">
-        <v>17455837215</v>
+        <v>18514952779</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <v>44409</v>
+        <v>44317</v>
       </c>
       <c r="B54" s="6">
-        <v>14758.6</v>
+        <v>14031.77</v>
       </c>
       <c r="C54" s="6">
-        <v>14423.162</v>
+        <v>13002.535</v>
       </c>
       <c r="D54" s="6">
-        <v>15288.083000000001</v>
+        <v>14042.124</v>
       </c>
       <c r="E54" s="6">
-        <v>15259.24</v>
+        <v>13748.74</v>
       </c>
       <c r="F54" s="6">
-        <v>17681288822</v>
+        <v>18492542668</v>
       </c>
     </row>
     <row r="55" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <v>44440</v>
+        <v>44348</v>
       </c>
       <c r="B55" s="6">
-        <v>15308.98</v>
+        <v>13829.06</v>
       </c>
       <c r="C55" s="6">
-        <v>14444.299000000001</v>
+        <v>13548.929</v>
       </c>
       <c r="D55" s="6">
-        <v>15403.437</v>
+        <v>14535.968999999999</v>
       </c>
       <c r="E55" s="6">
-        <v>14448.58</v>
+        <v>14503.95</v>
       </c>
       <c r="F55" s="6">
-        <v>20386896202</v>
+        <v>24048313629</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <v>44470</v>
+        <v>44378</v>
       </c>
       <c r="B56" s="6">
-        <v>14494.93</v>
+        <v>14493.69</v>
       </c>
       <c r="C56" s="6">
-        <v>14181.691000000001</v>
+        <v>14178.656999999999</v>
       </c>
       <c r="D56" s="6">
-        <v>15504.121999999999</v>
+        <v>14863.646000000001</v>
       </c>
       <c r="E56" s="6">
-        <v>15498.39</v>
+        <v>14672.68</v>
       </c>
       <c r="F56" s="6">
-        <v>18708446295</v>
+        <v>17455837215</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <v>44501</v>
+        <v>44409</v>
       </c>
       <c r="B57" s="6">
-        <v>15541.26</v>
+        <v>14758.6</v>
       </c>
       <c r="C57" s="6">
-        <v>15451.385</v>
+        <v>14423.162</v>
       </c>
       <c r="D57" s="6">
-        <v>16212.228999999999</v>
+        <v>15288.083000000001</v>
       </c>
       <c r="E57" s="6">
-        <v>15537.69</v>
+        <v>15259.24</v>
       </c>
       <c r="F57" s="6">
-        <v>21650408237</v>
+        <v>17681288822</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <v>44531</v>
+        <v>44440</v>
       </c>
       <c r="B58" s="6">
-        <v>15752.27</v>
+        <v>15308.98</v>
       </c>
       <c r="C58" s="6">
-        <v>14860.039000000001</v>
+        <v>14444.299000000001</v>
       </c>
       <c r="D58" s="6">
-        <v>15901.47</v>
+        <v>15403.437</v>
       </c>
       <c r="E58" s="6">
-        <v>15644.97</v>
+        <v>14448.58</v>
       </c>
       <c r="F58" s="6">
-        <v>22793982904</v>
+        <v>20386896202</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <v>44562</v>
+        <v>44470</v>
       </c>
       <c r="B59" s="6">
-        <v>15732.5</v>
+        <v>14494.93</v>
       </c>
       <c r="C59" s="6">
-        <v>13094.654</v>
+        <v>14181.691000000001</v>
       </c>
       <c r="D59" s="6">
-        <v>15852.136</v>
+        <v>15504.121999999999</v>
       </c>
       <c r="E59" s="6">
-        <v>14239.88</v>
+        <v>15498.39</v>
       </c>
       <c r="F59" s="6">
-        <v>20652338241</v>
+        <v>18708446295</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <v>44593</v>
+        <v>44501</v>
       </c>
       <c r="B60" s="6">
-        <v>14277.43</v>
+        <v>15541.26</v>
       </c>
       <c r="C60" s="6">
-        <v>12587.882</v>
+        <v>15451.385</v>
       </c>
       <c r="D60" s="6">
-        <v>14509.558000000001</v>
+        <v>16212.228999999999</v>
       </c>
       <c r="E60" s="6">
-        <v>13751.4</v>
+        <v>15537.69</v>
       </c>
       <c r="F60" s="6">
-        <v>18893380907</v>
+        <v>21650408237</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
+        <v>44531</v>
+      </c>
+      <c r="B61" s="6">
+        <v>15752.27</v>
+      </c>
+      <c r="C61" s="6">
+        <v>14860.039000000001</v>
+      </c>
+      <c r="D61" s="6">
+        <v>15901.47</v>
+      </c>
+      <c r="E61" s="6">
+        <v>15644.97</v>
+      </c>
+      <c r="F61" s="6">
+        <v>22793982904</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>44562</v>
+      </c>
+      <c r="B62" s="6">
+        <v>15732.5</v>
+      </c>
+      <c r="C62" s="6">
+        <v>13094.654</v>
+      </c>
+      <c r="D62" s="6">
+        <v>15852.136</v>
+      </c>
+      <c r="E62" s="6">
+        <v>14239.88</v>
+      </c>
+      <c r="F62" s="6">
+        <v>20652338241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>44593</v>
+      </c>
+      <c r="B63" s="6">
+        <v>14277.43</v>
+      </c>
+      <c r="C63" s="6">
+        <v>12587.882</v>
+      </c>
+      <c r="D63" s="6">
+        <v>14509.558000000001</v>
+      </c>
+      <c r="E63" s="6">
+        <v>13751.4</v>
+      </c>
+      <c r="F63" s="6">
+        <v>18893380907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>44621</v>
       </c>
-      <c r="B61" s="6">
+      <c r="B64" s="6">
         <v>13716.7</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C64" s="6">
         <v>12555.35</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D64" s="6">
         <v>14152.144</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E64" s="6">
         <v>14108.82</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F64" s="6">
         <v>20046780946</v>
       </c>
     </row>
